--- a/config/pipesar3shp/patch.xlsx
+++ b/config/pipesar3shp/patch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Item</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>TI</t>
+  </si>
+  <si>
+    <t>F_in_center_1</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,12 @@
       <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1000000</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
